--- a/config_8.10/act_hhl_ty_config.xlsx
+++ b/config_8.10/act_hhl_ty_config.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,7 +782,9 @@
       <c r="D2" s="2">
         <v>600</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
@@ -801,7 +803,9 @@
       <c r="D3" s="2">
         <v>1000</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
@@ -820,7 +824,9 @@
       <c r="D4" s="2">
         <v>3000</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
@@ -839,7 +845,9 @@
       <c r="D5" s="2">
         <v>6000</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>120</v>
+      </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
@@ -858,7 +866,9 @@
       <c r="D6" s="2">
         <v>12000</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>240</v>
+      </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
@@ -877,7 +887,9 @@
       <c r="D7" s="2">
         <v>36000</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>480</v>
+      </c>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -896,7 +908,9 @@
       <c r="D8" s="2">
         <v>50000</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>1000</v>
+      </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
@@ -915,7 +929,9 @@
       <c r="D9" s="2">
         <v>80000</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>1200</v>
+      </c>
       <c r="G9" s="5">
         <v>1</v>
       </c>
@@ -934,7 +950,9 @@
       <c r="D10" s="2">
         <v>120000</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2400</v>
+      </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
@@ -953,7 +971,9 @@
       <c r="D11" s="2">
         <v>150000</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>3000</v>
+      </c>
       <c r="G11" s="5">
         <v>1</v>
       </c>
@@ -1179,9 +1199,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1195,17 +1220,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1216,22 +1250,8 @@
 </pixelators>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1243,13 +1263,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1261,7 +1281,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>